--- a/data/output/FV2504_FV2410/UTILMD/55012.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55012.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="201">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="201">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -746,6 +746,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U80" totalsRowShown="0">
+  <autoFilter ref="A1:U80"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1035,7 +1065,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4674,5 +4707,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55012.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55012.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="279">
   <si>
     <t>#</t>
   </si>
@@ -4289,44 +4289,42 @@
       <c r="V59" s="5"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M60" s="5" t="s">
+      <c r="K60" s="2"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5" t="s">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="V60" s="5"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4464,9 +4462,7 @@
         <v>176</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>192</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>33</v>
       </c>
@@ -4493,44 +4489,42 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M64" s="5" t="s">
+      <c r="K64" s="2"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="V64" s="5"/>
+      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55012.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55012.xlsx
@@ -964,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -987,6 +987,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -995,6 +998,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1437,7 +1443,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1801,7 +1807,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1947,7 +1953,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2149,7 +2155,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2457,7 +2463,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2657,7 +2663,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3031,7 +3037,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3339,7 +3345,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3521,26 +3527,26 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M43" s="5"/>
@@ -3558,33 +3564,33 @@
       <c r="A44" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M44" s="5"/>
@@ -3602,33 +3608,33 @@
       <c r="A45" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="J45" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M45" s="5"/>
@@ -3646,31 +3652,31 @@
       <c r="A46" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M46" s="5"/>
@@ -3688,31 +3694,31 @@
       <c r="A47" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M47" s="5"/>
@@ -3740,29 +3746,29 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11" t="s">
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11" t="s">
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="V48" s="11"/>
+      <c r="V48" s="13"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
@@ -3778,35 +3784,35 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11" t="s">
+      <c r="S49" s="13"/>
+      <c r="T49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U49" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="V49" s="11"/>
+      <c r="U49" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="V49" s="13"/>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="5" t="s">
@@ -3822,35 +3828,35 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11" t="s">
+      <c r="S50" s="13"/>
+      <c r="T50" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="U50" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="V50" s="11"/>
+      <c r="U50" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -3866,54 +3872,54 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11" t="s">
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11" t="s">
+      <c r="S51" s="13"/>
+      <c r="T51" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="U51" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="V51" s="11"/>
+      <c r="U51" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
       <c r="J52" s="6" t="s">
         <v>182</v>
       </c>
@@ -3923,22 +3929,22 @@
       <c r="L52" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="N52" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="O52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P52" s="5"/>
+      <c r="P52" s="2"/>
       <c r="Q52" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
       <c r="U52" s="6" t="s">
         <v>181</v>
       </c>
@@ -4133,22 +4139,22 @@
       <c r="B56" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M56" s="5"/>
@@ -4166,27 +4172,27 @@
       <c r="A57" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M57" s="5"/>
@@ -4204,33 +4210,33 @@
       <c r="A58" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M58" s="5"/>
@@ -4248,33 +4254,33 @@
       <c r="A59" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M59" s="5"/>
@@ -4309,7 +4315,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4509,7 +4515,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4697,22 +4703,22 @@
       <c r="B68" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="L68" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M68" s="5"/>
@@ -4730,27 +4736,27 @@
       <c r="A69" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="9" t="s">
+      <c r="K69" s="9"/>
+      <c r="L69" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M69" s="5"/>
@@ -4768,33 +4774,33 @@
       <c r="A70" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="s">
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9" t="s">
+      <c r="J70" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M70" s="5"/>
@@ -4815,24 +4821,24 @@
       <c r="B71" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M71" s="5"/>
@@ -4850,33 +4856,33 @@
       <c r="A72" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8" t="s">
+      <c r="H72" s="9"/>
+      <c r="I72" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="9" t="s">
+      <c r="J72" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M72" s="5"/>
@@ -4894,33 +4900,33 @@
       <c r="A73" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="L73" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M73" s="5"/>
@@ -4941,20 +4947,20 @@
       <c r="B74" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8" t="s">
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K74" s="8"/>
-      <c r="L74" s="9" t="s">
+      <c r="K74" s="9"/>
+      <c r="L74" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M74" s="5"/>
@@ -4972,27 +4978,27 @@
       <c r="A75" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9" t="s">
+      <c r="K75" s="9"/>
+      <c r="L75" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M75" s="5"/>
@@ -5010,33 +5016,33 @@
       <c r="A76" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8" t="s">
+      <c r="H76" s="9"/>
+      <c r="I76" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9" t="s">
+      <c r="J76" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M76" s="5"/>
@@ -5054,33 +5060,33 @@
       <c r="A77" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8" t="s">
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J77" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K77" s="8"/>
-      <c r="L77" s="9" t="s">
+      <c r="J77" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10" t="s">
         <v>193</v>
       </c>
       <c r="M77" s="5"/>
@@ -5095,48 +5101,48 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K78" s="5"/>
+      <c r="K78" s="2"/>
       <c r="L78" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5" t="s">
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P78" s="5"/>
+      <c r="P78" s="2"/>
       <c r="Q78" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="V78" s="5"/>
+      <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5" t="s">
